--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/UiPath/RoboticEnterpriseFramework/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{016F71CB-3AD9-416D-8248-115E9B62B43B}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23C6EB1D-32A0-43BE-A358-3C2E0C6F565B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -84,39 +84,70 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
+    <t>Nome da fila do orquestrador. O valor deve corresponder ao nome da fila definido no orquestrador.</t>
+  </si>
+  <si>
+    <t>Campo de registro que permite o agrupamento de dados de registro de dois ou mais subprocessos sob o mesmo nome de processo de negócios</t>
+  </si>
+  <si>
+    <t>Deve ser 0 se estiver trabalhando com filas do orquestrador. Se&gt; 0, o robô tentará novamente a mesma transação que falhou com uma exceção do sistema. Deve ser um valor inteiro.</t>
+  </si>
+  <si>
+    <t>Onde salvar capturas de tela de exceções - pode ser um caminho completo ou relativo.</t>
+  </si>
+  <si>
+    <t>Parte estática da mensagem de registro. Chamando Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>Parte estática da mensagem de registro. Erro ao recuperar dados de transação.</t>
+  </si>
+  <si>
+    <t>Parte estática da mensagem de registro. Transação processada com sucesso.</t>
+  </si>
+  <si>
+    <t>Parte estática da mensagem de registro. A transação processada falhou com exceção de negócios.</t>
+  </si>
+  <si>
+    <t>Parte estática da mensagem de registro. A transação processada falhou com exceção do aplicativo.</t>
+  </si>
+  <si>
+    <t>timeOutMin</t>
+  </si>
+  <si>
+    <t>timeOutMed</t>
+  </si>
+  <si>
+    <t>timeOutLong</t>
+  </si>
+  <si>
+    <t>localPerfilReferencia</t>
+  </si>
+  <si>
+    <t>Data\Input\PerfisReferencias.xlsx</t>
+  </si>
+  <si>
+    <t>localPerfilReferenciaSheet</t>
+  </si>
+  <si>
+    <t>perfis</t>
+  </si>
+  <si>
+    <t>InstaGram</t>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nome da fila do orquestrador. O valor deve corresponder ao nome da fila definido no orquestrador.</t>
-  </si>
-  <si>
-    <t>Campo de registro que permite o agrupamento de dados de registro de dois ou mais subprocessos sob o mesmo nome de processo de negócios</t>
-  </si>
-  <si>
-    <t>Deve ser 0 se estiver trabalhando com filas do orquestrador. Se&gt; 0, o robô tentará novamente a mesma transação que falhou com uma exceção do sistema. Deve ser um valor inteiro.</t>
-  </si>
-  <si>
-    <t>Onde salvar capturas de tela de exceções - pode ser um caminho completo ou relativo.</t>
-  </si>
-  <si>
-    <t>Parte estática da mensagem de registro. Chamando Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>Parte estática da mensagem de registro. Erro ao recuperar dados de transação.</t>
-  </si>
-  <si>
-    <t>Parte estática da mensagem de registro. Transação processada com sucesso.</t>
-  </si>
-  <si>
-    <t>Parte estática da mensagem de registro. A transação processada falhou com exceção de negócios.</t>
-  </si>
-  <si>
-    <t>Parte estática da mensagem de registro. A transação processada falhou com exceção do aplicativo.</t>
+  </si>
+  <si>
+    <t>qtdPerfisSeguir</t>
+  </si>
+  <si>
+    <t>qtdSotresVisualizar</t>
+  </si>
+  <si>
+    <t>qtdDeixarSeguir</t>
+  </si>
+  <si>
+    <t>qtdComentar</t>
   </si>
 </sst>
 </file>
@@ -499,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -547,13 +578,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -565,21 +596,83 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>30000</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C10" s="4"/>
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="3:3" ht="14.25" customHeight="1"/>
@@ -1630,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1642,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1654,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1676,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1687,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1698,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23C6EB1D-32A0-43BE-A358-3C2E0C6F565B}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4789056-C4EC-450B-9D4C-41FD8E1CC330}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +670,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4789056-C4EC-450B-9D4C-41FD8E1CC330}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B628488-D784-445F-A405-28BF43E90A52}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +670,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B628488-D784-445F-A405-28BF43E90A52}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27E10D9A-C116-445D-A91E-C01F361B443A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +670,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simao\OneDrive\Documentos\PROJETOS\RPA\Gustavo MSG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27E10D9A-C116-445D-A91E-C01F361B443A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13240E01-E704-4896-9BCC-0E45796F4C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +670,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
